--- a/treasuries/5s30s_data.xlsx
+++ b/treasuries/5s30s_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12195"/>
+  <dimension ref="A1:B12199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98001,6 +98001,38 @@
         <v>0.08</v>
       </c>
     </row>
+    <row r="12196">
+      <c r="A12196" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B12196" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12197">
+      <c r="A12197" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B12197" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12198">
+      <c r="A12198" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B12198" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="12199">
+      <c r="A12199" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B12199" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
